--- a/Data/VaccineCC.xlsx
+++ b/Data/VaccineCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20B534E-F1C5-DA40-93B8-1618C3FB1152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF12663-EFD2-284F-BC1D-40724D3AFF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="22260" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="460" windowWidth="22260" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data/VaccineCC.xlsx
+++ b/Data/VaccineCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,12 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -45,6 +56,9 @@
   </si>
   <si>
     <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Have you ever delayed having your child get a shot for reasons other than illness or allergy? Select all that apply</t>
@@ -74,14 +88,39 @@
     <t xml:space="preserve">Have you ever decided not to have your child get a shot for reasons other than illness or allergy? Select all that apply. </t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5923753/</t>
-  </si>
-  <si>
-    <t>• Already received
-• Will definitely get one
-• Will probably get one
-•Will probably not get one
-• Will definitely not get one</t>
+    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
+  </si>
+  <si>
+    <t>Open Ended</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t>15, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to get your child under 12 years of age  the COVID-19 vaccine as soon, as it's available? </t>
+  </si>
+  <si>
+    <t>• Very likely
+• Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Has your child age 12 or older received the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>• Yes                                                                   • No</t>
+  </si>
+  <si>
+    <t>Why has your child age 12 or older not yet received the COVID-19 vaccince?</t>
+  </si>
+  <si>
+    <t>• I have not been able to get an appointment for my child                               • I can't get to a vaccination site dues to where I live, time off from work, etc.
+• I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated                                                                 • I do not believe the vaccine is safe/effective                                                              • Other, please specify</t>
   </si>
   <si>
     <t xml:space="preserve">How likely are you to get the first generation COVID-19 vaccine as soon as it's available?  </t>
@@ -91,74 +130,7 @@
 • Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
   </si>
   <si>
-    <t>• Already received           • Very likely
-• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
-https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
-  </si>
-  <si>
-    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
-  </si>
-  <si>
-    <t>Open Ended</t>
-  </si>
-  <si>
-    <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely are you to get your child the COVID-19 vaccine as soon as it's available? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t>•Yes 
-•No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[Display this question if Have you received the COVID-19 vaccine = No]
-Why have you not yet received the COVID-19 vaccine? </t>
-  </si>
-  <si>
-    <t>• I am not eligible yet, based on my age, type of job, etc.
-• I am eligible but I haven't gotten vaccinated because I have not been able to get an appointment
-• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated                                                              • I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc                                                                    • I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective
-• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
-  </si>
-  <si>
-    <t>[Display this question if Have you received the COVID-19 vaccine = No]
-Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
-• I’m less likely to get it than I was at first    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
-If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I have heard from friends/relatives that it is unsafe
-• I have heard from TV or the internet that it is unsafe
-• I no longer think I need it
-• Other, please specify      </t>
-  </si>
-  <si>
-    <t>[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m more likely to get it than I was at first ]
-If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news
-• I learned more about the safety of it from TV or the news
-• My friends/family convinced me it was safe and/or effective
-• I want be able to do things that only vaccinated people can do
-• Other, please specify </t>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5923753/</t>
   </si>
   <si>
     <r>
@@ -185,14 +157,90 @@
     </r>
   </si>
   <si>
-    <t>15</t>
+    <t>• Already received
+• Will definitely get one
+• Will probably get one
+•Will probably not get one
+• Will definitely not get one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to get your child the COVID-19 vaccine as soon as it's available? </t>
+  </si>
+  <si>
+    <t>• Already received           • Very likely
+• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
+https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you received the COVID-19 vaccine? </t>
+  </si>
+  <si>
+    <t>•Yes 
+•No</t>
+  </si>
+  <si>
+    <t>[Display this question if Have you received the COVID-19 vaccine = No]                                                                                                                                                                                                                                                              Why have you not yet received the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>• I have not been able to get an appointment
+• I can't get to a vaccine site due to where I live, time off from work, etc.
+• I am planning to "wait and see" if the vaccine is safe and effective                                                      • I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[Display this question if Have you received the COVID-19 vaccine = No]
+Why have you not yet received the COVID-19 vaccine? </t>
+  </si>
+  <si>
+    <t>• I am not eligible yet, based on my age, type of job, etc.
+• I am eligible but I haven't gotten vaccinated because I have not been able to get an appointment
+• I am eligible but I haven’t gotten vaccinated because I don’t know how to get an appointment to get vaccinated                                                              • I am eligible but I haven’t gotten vaccinated because I can’t get to a vaccination site due to where I live, time off from work, etc                                                                    • I am eligible but I haven’t gotten vaccinated because I am planning to “wait and see” the vaccine is safe and effective
+• I am eligible but I haven’t gotten vaccinated because I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
+  </si>
+  <si>
+    <t>[Display this question if Have you received the COVID-19 vaccine = No]
+Have your feelings about getting the COVID-19 vaccine changed since it became available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
+• I’m less likely to get it than I was at first    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
+If you have become less likely to get the vaccine than you originally were, what are your reasons? Select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I have heard from friends/relatives that it is unsafe
+• I have heard from TV or the internet that it is unsafe
+• I no longer think I need it
+• Other, please specify      </t>
+  </si>
+  <si>
+    <t>[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m more likely to get it than I was at first ]
+If you have become more likely to get the vaccine than you were at first, what are your reasons? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I learned more about the effectiveness of it from TV or the news
+• I learned more about the safety of it from TV or the news
+• My friends/family convinced me it was safe and/or effective
+• I want be able to do things that only vaccinated people can do
+• Other, please specify </t>
+  </si>
+  <si>
+    <t>Do you have any concerns about receiving the COVID-19 vaccine? Please explain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How likely are you to get a booster of the COVID-19 vaccine, as soon as it's available?  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -255,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -278,11 +326,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -309,6 +377,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1471,23 +1560,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="33.950000000000003">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1516,198 +1605,280 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="135.94999999999999" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="119.1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119.1" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="119.1" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="285">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="119.1" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="240">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="408" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="408" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="408" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="408" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45.95" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105">
+      <c r="A19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45.95" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="45.95" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A22" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Data/VaccineCC.xlsx
+++ b/Data/VaccineCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF12663-EFD2-284F-BC1D-40724D3AFF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68D969F-0A2A-FB4D-B4CA-C7B9C540DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="460" windowWidth="22260" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="18440" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -235,12 +235,82 @@
   <si>
     <t xml:space="preserve">How likely are you to get a booster of the COVID-19 vaccine, as soon as it's available?  </t>
   </si>
+  <si>
+    <t>15, 34, 83</t>
+  </si>
+  <si>
+    <t>34, 83</t>
+  </si>
+  <si>
+    <t>15, 83</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please select the best answer about when you would have your child(ren) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>under 12 years of age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> receive the COVID-19 vaccine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">o In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
+o In a few months, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
+o If my child begins to attend a center, program, or school  
+o I am unlikely to ever have my child receive the COVID-19 vaccine  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where would you prefer to have your child(ren) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>under 12 years of age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> receive the COVID-19 vaccine?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">o Our pediatrician's office  
+o My child's school  
+o A drop-in site in my community (e.g., at a church, park, or other public space)  
+o A local pharmacy  
+o Other, please specify:  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -287,6 +357,30 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -350,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -399,6 +493,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,23 +1661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33.950000000000003">
+    <row r="2" spans="1:5" ht="34">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="136" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135.94999999999999" customHeight="1">
+    <row r="4" spans="1:5" ht="136" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="119.1" customHeight="1">
+    <row r="5" spans="1:5" ht="119" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1654,10 +1755,10 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="119.1" customHeight="1">
+    <row r="7" spans="1:5" ht="119" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1680,10 +1781,10 @@
       <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="285">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="255">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1693,10 +1794,10 @@
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="84.95" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1713,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="119.1" customHeight="1">
+    <row r="10" spans="1:5" ht="119" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1845,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="102" customHeight="1">
@@ -1759,10 +1860,10 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="240">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="187">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1772,7 +1873,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="408" customHeight="1">
@@ -1787,7 +1888,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="408" customHeight="1">
@@ -1817,7 +1918,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="408" customHeight="1">
@@ -1832,10 +1933,10 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45.95" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="46" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
@@ -1850,7 +1951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="105">
+    <row r="19" spans="1:5" ht="68">
       <c r="A19" s="20" t="s">
         <v>46</v>
       </c>
@@ -1860,25 +1961,43 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45.95" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="282" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="45.95" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:5" ht="179" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+    <row r="22" spans="1:5" ht="16" customHeight="1">
       <c r="A22" s="12"/>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="16" customHeight="1">
+      <c r="B25" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Data/VaccineCC.xlsx
+++ b/Data/VaccineCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68D969F-0A2A-FB4D-B4CA-C7B9C540DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF12663-EFD2-284F-BC1D-40724D3AFF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="500" windowWidth="18440" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="460" windowWidth="22260" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">Has your child(ren) missed a scheduled vaccine this year? </t>
@@ -58,7 +58,7 @@
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t>15</t>
+    <t>06/02/2021-06/07/2021</t>
   </si>
   <si>
     <t>Have you ever delayed having your child get a shot for reasons other than illness or allergy? Select all that apply</t>
@@ -97,7 +97,7 @@
     <t>RAPID Team Developed</t>
   </si>
   <si>
-    <t>15, 34</t>
+    <t xml:space="preserve">06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How likely are you to get your child under 12 years of age  the COVID-19 vaccine as soon, as it's available? </t>
@@ -107,13 +107,23 @@
 • Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
   </si>
   <si>
-    <t>34</t>
+    <t xml:space="preserve">10/13/2021-10/17/2021 </t>
+  </si>
+  <si>
+    <t>• Already received        • Very likely
+• Somewhat likely                                                                     • Not very likely                                                                    • Not at all likely</t>
+  </si>
+  <si>
+    <t>11/10/2021-11/15/2021</t>
   </si>
   <si>
     <t>Has your child age 12 or older received the COVID-19 vaccine?</t>
   </si>
   <si>
     <t>• Yes                                                                   • No</t>
+  </si>
+  <si>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021</t>
   </si>
   <si>
     <t>Why has your child age 12 or older not yet received the COVID-19 vaccince?</t>
@@ -182,12 +192,18 @@
 •No</t>
   </si>
   <si>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021</t>
+  </si>
+  <si>
     <t>[Display this question if Have you received the COVID-19 vaccine = No]                                                                                                                                                                                                                                                              Why have you not yet received the COVID-19 vaccine?</t>
   </si>
   <si>
     <t>• I have not been able to get an appointment
 • I can't get to a vaccine site due to where I live, time off from work, etc.
 • I am planning to "wait and see" if the vaccine is safe and effective                                                      • I do not believe the vaccine is safe/effective                                                                    • Other, please specify</t>
+  </si>
+  <si>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -236,81 +252,42 @@
     <t xml:space="preserve">How likely are you to get a booster of the COVID-19 vaccine, as soon as it's available?  </t>
   </si>
   <si>
-    <t>15, 34, 83</t>
-  </si>
-  <si>
-    <t>34, 83</t>
-  </si>
-  <si>
-    <t>15, 83</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Please select the best answer about when you would have your child(ren) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>under 12 years of age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> receive the COVID-19 vaccine</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">o In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
-o In a few months, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated 
-o If my child begins to attend a center, program, or school  
-o I am unlikely to ever have my child receive the COVID-19 vaccine  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Where would you prefer to have your child(ren) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>under 12 years of age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> receive the COVID-19 vaccine?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">o Our pediatrician's office  
-o My child's school  
-o A drop-in site in my community (e.g., at a church, park, or other public space)  
-o A local pharmacy  
-o Other, please specify:  </t>
+    <t>10/13/2021-10/17/2021 10/26/2021-11/01/2021</t>
+  </si>
+  <si>
+    <t>When would you vaccinate (for COVID-19) you child under 12 years of ae? Select the best answer.</t>
+  </si>
+  <si>
+    <t>• In a few weeks, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated
+• In a few months, I am planning to "wait and see" if the vaccine is safe and effective before my child is vaccinated                                                        • If my child begins to attend a center, program or school                                                              • I am unlikely to ever have my child receive the vaccine</t>
+  </si>
+  <si>
+    <t>Where would you prefer to have your child under 12 years of age receive the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>• Our pediatrician's office
+• My child's school                                                  • A drop sit in my community (e.g., at a church, park, or other public space)                                                            • A local pharmacy              • Other (please specify): [Free response]</t>
+  </si>
+  <si>
+    <t>Now that it is available to everyone 18 and older, how likely are you to get a booster of the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Already received 
+• Very likely 
+• Somewhat likely
+• Not very likely  
+• Not at all likely
+</t>
+  </si>
+  <si>
+    <t>12/07/2021-12/21/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -359,28 +336,22 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FFBFBFBF"/>
       <name val="Courier New"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -397,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,15 +393,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -444,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -473,34 +435,35 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1661,23 +1624,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34">
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="136" customHeight="1">
+    <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="136" customHeight="1">
+    <row r="4" spans="1:5" ht="135.94999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="119" customHeight="1">
+    <row r="5" spans="1:5" ht="119.1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1755,10 +1719,10 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119.1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1771,20 +1735,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="119" customHeight="1">
+    <row r="7" spans="1:5" ht="119.1" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="255">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="119.1" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1794,27 +1758,23 @@
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="285">
       <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="119" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" ht="84.95" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -1825,27 +1785,27 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
+    <row r="11" spans="1:5" ht="119.1" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>32</v>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="102" customHeight="1">
@@ -1855,149 +1815,193 @@
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="102" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="187">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="408" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="240">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="408" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="408" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="408" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="46" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="408" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45.95" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="68">
-      <c r="A19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="17" t="s">
+    <row r="20" spans="1:5" ht="105">
+      <c r="A20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="282" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="120">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="179" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="300">
+      <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" ht="16" customHeight="1">
-      <c r="B23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" ht="16" customHeight="1">
-      <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" ht="16" customHeight="1">
-      <c r="B25" s="22"/>
+      <c r="B22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="195">
+      <c r="A23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="94.5">
+      <c r="A24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.95" customHeight="1">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.95" customHeight="1">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.95" customHeight="1">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.95" customHeight="1">
+      <c r="B28" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Data/VaccineCC.xlsx
+++ b/Data/VaccineCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -192,7 +192,13 @@
 •No</t>
   </si>
   <si>
-    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021</t>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 48</t>
+  </si>
+  <si>
+    <t>Have you received a booster of the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>[Display this question if Have you received the COVID-19 vaccine = No]                                                                                                                                                                                                                                                              Why have you not yet received the COVID-19 vaccine?</t>
@@ -223,6 +229,9 @@
   <si>
     <t xml:space="preserve">• I’m more likely to get it than I was at first           • No change in my overall feelings
 • I’m less likely to get it than I was at first    </t>
+  </si>
+  <si>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021</t>
   </si>
   <si>
     <t xml:space="preserve">[Display this question if Have your feelings about getting the COVID-19 vaccine changed since it became available? = I’m less likely to get it than I was at first ]
@@ -406,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -460,10 +469,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1624,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1669,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1686,7 +1698,7 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1703,7 +1715,7 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1718,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1731,7 +1743,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1744,7 +1756,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1757,7 +1769,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1770,7 +1782,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1787,7 +1799,7 @@
       <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1804,7 +1816,7 @@
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1821,7 +1833,7 @@
       <c r="D12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1836,36 +1848,34 @@
         <v>16</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="240">
+    <row r="14" spans="1:5" ht="102" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="240">
+      <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="408" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="408" customHeight="1">
@@ -1879,8 +1889,8 @@
         <v>16</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="11" t="s">
-        <v>38</v>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="408" customHeight="1">
@@ -1894,105 +1904,117 @@
         <v>16</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="11" t="s">
-        <v>38</v>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="408" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45.95" customHeight="1">
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="408" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45.95" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="105">
-      <c r="A20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:5" ht="105">
+      <c r="A21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="120">
-      <c r="A21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="300">
-      <c r="A22" s="16" t="s">
-        <v>53</v>
+      <c r="E21" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="120">
+      <c r="A22" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="195">
-      <c r="A23" s="17" t="s">
-        <v>55</v>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="300">
+      <c r="A23" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="94.5">
-      <c r="A24" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:5" ht="195">
+      <c r="A24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23" t="s">
+      <c r="B24" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.95" customHeight="1">
-      <c r="B25" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="94.5">
+      <c r="A25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.95" customHeight="1">
       <c r="B26" s="18"/>
@@ -2001,7 +2023,10 @@
       <c r="B27" s="18"/>
     </row>
     <row r="28" spans="1:5" ht="15.95" customHeight="1">
-      <c r="B28" s="19"/>
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.95" customHeight="1">
+      <c r="B29" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Data/VaccineCC.xlsx
+++ b/Data/VaccineCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miyupl1bsWRBe5TQ6bKm08YTjwygQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj4jVL3Me8eGZHoM1yMOCByo6Yrsg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +86,7 @@
     <t>How do you feel about the COVID-19 vaccine in terms of its safety and effectiveness, and what are your plans in terms of whether or not to get it?</t>
   </si>
   <si>
-    <t>Open Ended</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>RAPID Team Developed</t>
@@ -871,7 +871,7 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1609,7 +1609,7 @@
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
